--- a/uploads/rbt/excel/1508142270_Etisalat Mashari Al Afasi_old .xlsx
+++ b/uploads/rbt/excel/1508142270_Etisalat Mashari Al Afasi_old .xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="52">
   <si>
     <t>code</t>
   </si>
@@ -170,6 +170,12 @@
   <si>
     <t>Owner</t>
   </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>ExpireDate</t>
+  </si>
 </sst>
 </file>
 
@@ -200,7 +206,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -223,11 +229,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -236,6 +253,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -25161,10 +25182,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25172,9 +25193,11 @@
     <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -25187,8 +25210,14 @@
       <c r="D1" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="E1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -25201,8 +25230,14 @@
       <c r="D2" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="E2" s="5">
+        <v>44106</v>
+      </c>
+      <c r="F2" s="5">
+        <v>44131</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -25213,8 +25248,14 @@
       <c r="D3" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="E3" s="5">
+        <v>44106</v>
+      </c>
+      <c r="F3" s="5">
+        <v>44131</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -25225,8 +25266,14 @@
       <c r="D4" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="E4" s="5">
+        <v>44106</v>
+      </c>
+      <c r="F4" s="5">
+        <v>44131</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -25237,8 +25284,14 @@
       <c r="D5" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="E5" s="5">
+        <v>44106</v>
+      </c>
+      <c r="F5" s="5">
+        <v>44131</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -25249,8 +25302,14 @@
       <c r="D6" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="E6" s="5">
+        <v>44106</v>
+      </c>
+      <c r="F6" s="5">
+        <v>44131</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -25261,8 +25320,14 @@
       <c r="D7" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="E7" s="5">
+        <v>44106</v>
+      </c>
+      <c r="F7" s="5">
+        <v>44131</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -25273,8 +25338,14 @@
       <c r="D8" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="E8" s="5">
+        <v>44106</v>
+      </c>
+      <c r="F8" s="5">
+        <v>44131</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -25285,8 +25356,14 @@
       <c r="D9" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="E9" s="5">
+        <v>44106</v>
+      </c>
+      <c r="F9" s="5">
+        <v>44131</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -25297,8 +25374,14 @@
       <c r="D10" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="E10" s="5">
+        <v>44106</v>
+      </c>
+      <c r="F10" s="5">
+        <v>44131</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -25309,8 +25392,14 @@
       <c r="D11" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="E11" s="5">
+        <v>44106</v>
+      </c>
+      <c r="F11" s="5">
+        <v>44131</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -25321,8 +25410,14 @@
       <c r="D12" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="E12" s="5">
+        <v>44106</v>
+      </c>
+      <c r="F12" s="5">
+        <v>44131</v>
+      </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -25333,8 +25428,14 @@
       <c r="D13" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="E13" s="5">
+        <v>44106</v>
+      </c>
+      <c r="F13" s="5">
+        <v>44131</v>
+      </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -25345,8 +25446,14 @@
       <c r="D14" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="E14" s="5">
+        <v>44106</v>
+      </c>
+      <c r="F14" s="5">
+        <v>44131</v>
+      </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
@@ -25357,8 +25464,14 @@
       <c r="D15" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="E15" s="5">
+        <v>44106</v>
+      </c>
+      <c r="F15" s="5">
+        <v>44131</v>
+      </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
@@ -25369,8 +25482,14 @@
       <c r="D16" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="E16" s="5">
+        <v>44106</v>
+      </c>
+      <c r="F16" s="5">
+        <v>44131</v>
+      </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
@@ -25381,8 +25500,14 @@
       <c r="D17" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="E17" s="5">
+        <v>44106</v>
+      </c>
+      <c r="F17" s="5">
+        <v>44131</v>
+      </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
@@ -25393,8 +25518,14 @@
       <c r="D18" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="E18" s="5">
+        <v>44106</v>
+      </c>
+      <c r="F18" s="5">
+        <v>44131</v>
+      </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
@@ -25405,8 +25536,14 @@
       <c r="D19" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="E19" s="5">
+        <v>44106</v>
+      </c>
+      <c r="F19" s="5">
+        <v>44131</v>
+      </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
@@ -25417,8 +25554,14 @@
       <c r="D20" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="E20" s="5">
+        <v>44106</v>
+      </c>
+      <c r="F20" s="5">
+        <v>44131</v>
+      </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
@@ -25429,8 +25572,14 @@
       <c r="D21" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="E21" s="5">
+        <v>44106</v>
+      </c>
+      <c r="F21" s="5">
+        <v>44131</v>
+      </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
@@ -25441,8 +25590,14 @@
       <c r="D22" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="E22" s="5">
+        <v>44106</v>
+      </c>
+      <c r="F22" s="5">
+        <v>44131</v>
+      </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>23</v>
       </c>
@@ -25454,7 +25609,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
@@ -25466,7 +25621,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>25</v>
       </c>
@@ -25478,7 +25633,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>26</v>
       </c>
@@ -25490,7 +25645,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>27</v>
       </c>
@@ -25502,7 +25657,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>28</v>
       </c>
@@ -25514,7 +25669,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>29</v>
       </c>
@@ -25526,7 +25681,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>30</v>
       </c>
@@ -25538,7 +25693,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>31</v>
       </c>
@@ -25550,7 +25705,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>32</v>
       </c>
